--- a/Document_DATN/9.ProjectTestReport.xlsx
+++ b/Document_DATN/9.ProjectTestReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAnTN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN\Document_DATN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26F203C0-F039-4480-900E-552FC1B27C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6301C4AA-3E18-4708-BF48-CF90ACACB062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>Functions</t>
   </si>
@@ -165,12 +165,6 @@
     <t>Danh sách sự kiện</t>
   </si>
   <si>
-    <t>Thêm sự kiện</t>
-  </si>
-  <si>
-    <t>Cập nhật sự kiện</t>
-  </si>
-  <si>
     <t>Danh sách khoá học</t>
   </si>
   <si>
@@ -211,12 +205,6 @@
   </si>
   <si>
     <t>Xem danh sách sự kiện</t>
-  </si>
-  <si>
-    <t>Thêm mới sự kiện</t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin sự kiện</t>
   </si>
   <si>
     <t>Cập nhật thông tin giảng viên</t>
@@ -28987,10 +28975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:Z1005"/>
+  <dimension ref="A3:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -29131,7 +29119,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="8">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
@@ -29195,7 +29183,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="11">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
@@ -29325,7 +29313,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="11">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
@@ -29357,7 +29345,7 @@
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="11">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
@@ -29458,7 +29446,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="16">
         <v>1</v>
@@ -29498,7 +29486,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="16">
         <v>1</v>
@@ -29538,7 +29526,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="16">
         <v>1</v>
@@ -29550,7 +29538,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="3"/>
@@ -29578,7 +29566,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="16">
         <v>1</v>
@@ -29590,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="3"/>
@@ -29618,7 +29606,7 @@
         <v>44</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="16">
         <v>1</v>
@@ -29658,7 +29646,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="16">
         <v>1</v>
@@ -29675,7 +29663,6 @@
       <c r="G23" s="6"/>
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -29698,7 +29685,7 @@
         <v>46</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="16">
         <v>1</v>
@@ -29734,11 +29721,11 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C25" s="16">
         <v>1</v>
@@ -29755,6 +29742,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -29773,11 +29761,11 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C26" s="16">
         <v>1</v>
@@ -29789,7 +29777,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="3"/>
@@ -29817,7 +29805,7 @@
         <v>49</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C27" s="16">
         <v>1</v>
@@ -29857,7 +29845,7 @@
         <v>50</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" s="16">
         <v>1</v>
@@ -29869,7 +29857,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="3"/>
@@ -29897,7 +29885,7 @@
         <v>51</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="16">
         <v>1</v>
@@ -29909,7 +29897,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="3"/>
@@ -29937,7 +29925,7 @@
         <v>52</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" s="16">
         <v>1</v>
@@ -29949,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="3"/>
@@ -29972,12 +29960,12 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" s="16">
         <v>1</v>
@@ -30012,27 +30000,15 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="16">
-        <v>1</v>
-      </c>
-      <c r="D32" s="16">
-        <v>1</v>
-      </c>
-      <c r="E32" s="12">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>2</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="3"/>
+    <row r="32" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -30052,27 +30028,25 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>55</v>
+    <row r="33" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
+        <v>19</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="16">
+      <c r="B33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="16">
-        <v>1</v>
+      <c r="C33" s="15" t="s">
+        <v>20</v>
       </c>
-      <c r="E33" s="12">
-        <v>0</v>
+      <c r="D33" s="15" t="s">
+        <v>21</v>
       </c>
-      <c r="F33" s="6">
-        <v>2</v>
+      <c r="E33" s="15" t="s">
+        <v>5</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -30092,14 +30066,14 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="14"/>
+    <row r="34" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="17"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -30120,23 +30094,19 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
-        <v>19</v>
+    <row r="35" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="25" t="s">
+        <v>25</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>1</v>
+      <c r="B35" s="18" t="s">
+        <v>22</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>20</v>
+      <c r="C35" s="12">
+        <v>0</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -30158,13 +30128,17 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="17"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="3"/>
+    <row r="36" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="25"/>
+      <c r="B36" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -30186,12 +30160,10 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="25" t="s">
-        <v>25</v>
-      </c>
+    <row r="37" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="25"/>
       <c r="B37" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C37" s="12">
         <v>0</v>
@@ -30221,14 +30193,10 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="25"/>
-      <c r="B38" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="12">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -30252,15 +30220,11 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="25"/>
-      <c r="B39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="12">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3"/>
+    <row r="39" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -30285,9 +30249,9 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -57276,69 +57240,13 @@
       <c r="Y1003" s="2"/>
       <c r="Z1003" s="2"/>
     </row>
-    <row r="1004" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1004" s="2"/>
-      <c r="B1004" s="2"/>
-      <c r="C1004" s="2"/>
-      <c r="D1004" s="2"/>
-      <c r="E1004" s="2"/>
-      <c r="F1004" s="2"/>
-      <c r="G1004" s="2"/>
-      <c r="H1004" s="2"/>
-      <c r="I1004" s="2"/>
-      <c r="J1004" s="2"/>
-      <c r="K1004" s="2"/>
-      <c r="L1004" s="2"/>
-      <c r="M1004" s="2"/>
-      <c r="N1004" s="2"/>
-      <c r="O1004" s="2"/>
-      <c r="P1004" s="2"/>
-      <c r="Q1004" s="2"/>
-      <c r="R1004" s="2"/>
-      <c r="S1004" s="2"/>
-      <c r="T1004" s="2"/>
-      <c r="U1004" s="2"/>
-      <c r="V1004" s="2"/>
-      <c r="W1004" s="2"/>
-      <c r="X1004" s="2"/>
-      <c r="Y1004" s="2"/>
-      <c r="Z1004" s="2"/>
-    </row>
-    <row r="1005" spans="1:26" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1005" s="2"/>
-      <c r="B1005" s="2"/>
-      <c r="C1005" s="2"/>
-      <c r="D1005" s="2"/>
-      <c r="E1005" s="2"/>
-      <c r="F1005" s="2"/>
-      <c r="G1005" s="2"/>
-      <c r="H1005" s="2"/>
-      <c r="I1005" s="2"/>
-      <c r="J1005" s="2"/>
-      <c r="K1005" s="2"/>
-      <c r="L1005" s="2"/>
-      <c r="M1005" s="2"/>
-      <c r="N1005" s="2"/>
-      <c r="O1005" s="2"/>
-      <c r="P1005" s="2"/>
-      <c r="Q1005" s="2"/>
-      <c r="R1005" s="2"/>
-      <c r="S1005" s="2"/>
-      <c r="T1005" s="2"/>
-      <c r="U1005" s="2"/>
-      <c r="V1005" s="2"/>
-      <c r="W1005" s="2"/>
-      <c r="X1005" s="2"/>
-      <c r="Y1005" s="2"/>
-      <c r="Z1005" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A35:A37"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
